--- a/doc/Falcon MC 接维宏卡定义.xlsx
+++ b/doc/Falcon MC 接维宏卡定义.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="连接器定义" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -836,7 +836,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:H34"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -852,23 +852,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H1" s="2" t="s">

--- a/doc/Falcon MC 接维宏卡定义.xlsx
+++ b/doc/Falcon MC 接维宏卡定义.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="连接器定义" sheetId="1" r:id="rId1"/>
+    <sheet name="FPGA管脚对应表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -835,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -1524,4 +1525,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/Falcon MC 接维宏卡定义.xlsx
+++ b/doc/Falcon MC 接维宏卡定义.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="连接器定义" sheetId="1" r:id="rId1"/>
     <sheet name="FPGA管脚对应表" sheetId="2" r:id="rId2"/>
+    <sheet name="WH模式信号连接" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,470 +21,1994 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="518">
   <si>
     <t>维宏DB15连接器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>对刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Z_脉冲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Y_脉冲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X_脉冲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>主轴高速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Z_限位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Y_限位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X_限位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X_方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Y_方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Z_方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>主轴低速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>主轴中速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>地线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Direction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>from FPGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>to FPGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Net Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F_XF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F_ZM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F_YF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F_YM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F_ZF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F_XM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F_ZD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F_ZG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F_ZZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F_DD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F_ZX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F_YX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F_XX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>连接器名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FPGA Pin Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>P6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>P7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>T8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>N8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>T9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>P5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>P4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>P9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>N9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>P11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>T7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FPGA Dir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>按键输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_91</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>按键灯0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>按键灯1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>T4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>N6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ALIGN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Z1_PULS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Y1_PULS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X1_PULS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MA_HIGH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Z_ORG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Y_ORG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X_ORG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X1_DIR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Y1_DIR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Z1_DIR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MA_MIDU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MA_LOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON_48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>T12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>H14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>T13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>T14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>T15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>E16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>H16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>H13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pair pins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA PIN NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIN NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CON_00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CON_01</t>
+  </si>
+  <si>
+    <t>CON_02</t>
+  </si>
+  <si>
+    <t>CON_03</t>
+  </si>
+  <si>
+    <t>CON_04</t>
+  </si>
+  <si>
+    <t>CON_05</t>
+  </si>
+  <si>
+    <t>CON_06</t>
+  </si>
+  <si>
+    <t>CON_07</t>
+  </si>
+  <si>
+    <t>CON_08</t>
+  </si>
+  <si>
+    <t>CON_09</t>
+  </si>
+  <si>
+    <t>CON_10</t>
+  </si>
+  <si>
+    <t>CON_11</t>
+  </si>
+  <si>
+    <t>CON_12</t>
+  </si>
+  <si>
+    <t>CON_13</t>
+  </si>
+  <si>
+    <t>CON_14</t>
+  </si>
+  <si>
+    <t>CON_15</t>
+  </si>
+  <si>
+    <t>CON_16</t>
+  </si>
+  <si>
+    <t>CON_17</t>
+  </si>
+  <si>
+    <t>CON_18</t>
+  </si>
+  <si>
+    <t>CON_19</t>
+  </si>
+  <si>
+    <t>CON_20</t>
+  </si>
+  <si>
+    <t>CON_21</t>
+  </si>
+  <si>
+    <t>CON_22</t>
+  </si>
+  <si>
+    <t>CON_23</t>
+  </si>
+  <si>
+    <t>CON_24</t>
+  </si>
+  <si>
+    <t>CON_25</t>
+  </si>
+  <si>
+    <t>CON_26</t>
+  </si>
+  <si>
+    <t>CON_27</t>
+  </si>
+  <si>
+    <t>CON_28</t>
+  </si>
+  <si>
+    <t>CON_29</t>
+  </si>
+  <si>
+    <t>CON_30</t>
+  </si>
+  <si>
+    <t>I2C_SCL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C_SDA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASE_CLOCK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CON_31</t>
+  </si>
+  <si>
+    <t>CON_32</t>
+  </si>
+  <si>
+    <t>CON_33</t>
+  </si>
+  <si>
+    <t>CON_34</t>
+  </si>
+  <si>
+    <t>CON_35</t>
+  </si>
+  <si>
+    <t>CON_36</t>
+  </si>
+  <si>
+    <t>CON_37</t>
+  </si>
+  <si>
+    <t>CON_38</t>
+  </si>
+  <si>
+    <t>CON_39</t>
+  </si>
+  <si>
+    <t>CON_40</t>
+  </si>
+  <si>
+    <t>CON_41</t>
+  </si>
+  <si>
+    <t>CON_42</t>
+  </si>
+  <si>
+    <t>CON_43</t>
+  </si>
+  <si>
+    <t>CON_44</t>
+  </si>
+  <si>
+    <t>CON_45</t>
+  </si>
+  <si>
+    <t>CON_46</t>
+  </si>
+  <si>
+    <t>CON_47</t>
+  </si>
+  <si>
+    <t>CON_48</t>
+  </si>
+  <si>
+    <t>CON_49</t>
+  </si>
+  <si>
+    <t>CON_50</t>
+  </si>
+  <si>
+    <t>CON_51</t>
+  </si>
+  <si>
+    <t>CON_52</t>
+  </si>
+  <si>
+    <t>CON_53</t>
+  </si>
+  <si>
+    <t>CON_54</t>
+  </si>
+  <si>
+    <t>CON_55</t>
+  </si>
+  <si>
+    <t>CON_56</t>
+  </si>
+  <si>
+    <t>CON_57</t>
+  </si>
+  <si>
+    <t>CON_58</t>
+  </si>
+  <si>
+    <t>CON_59</t>
+  </si>
+  <si>
+    <t>CON_60</t>
+  </si>
+  <si>
+    <t>CON_61</t>
+  </si>
+  <si>
+    <t>CON_62</t>
+  </si>
+  <si>
+    <t>CON_63</t>
+  </si>
+  <si>
+    <t>CON_64</t>
+  </si>
+  <si>
+    <t>CON_65</t>
+  </si>
+  <si>
+    <t>CON_66</t>
+  </si>
+  <si>
+    <t>CON_67</t>
+  </si>
+  <si>
+    <t>CON_68</t>
+  </si>
+  <si>
+    <t>CON_69</t>
+  </si>
+  <si>
+    <t>CON_70</t>
+  </si>
+  <si>
+    <t>CON_71</t>
+  </si>
+  <si>
+    <t>CON_72</t>
+  </si>
+  <si>
+    <t>CON_73</t>
+  </si>
+  <si>
+    <t>CON_74</t>
+  </si>
+  <si>
+    <t>MDC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWITCH_SET0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWITCH_SET1</t>
+  </si>
+  <si>
+    <t>SWITCH_SET2</t>
+  </si>
+  <si>
+    <t>SWITCH_SET3</t>
+  </si>
+  <si>
+    <t>LED1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ_LED1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDIO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHY_RST_N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXD0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXD1</t>
+  </si>
+  <si>
+    <t>TXD2</t>
+  </si>
+  <si>
+    <t>TXD3</t>
+  </si>
+  <si>
+    <t>RXD0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RXD1</t>
+  </si>
+  <si>
+    <t>RXD2</t>
+  </si>
+  <si>
+    <t>RXD3</t>
+  </si>
+  <si>
+    <t>TX_EN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RXCLK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTXCLK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ_LED2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED2_RED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYA0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_LIGHT0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_LIGHT1</t>
+  </si>
+  <si>
+    <t>LED_LIGHT2</t>
+  </si>
+  <si>
+    <t>LED_LIGHT3</t>
+  </si>
+  <si>
+    <t>DEBUG_TXD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUG_RXD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN_SCL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN_SDA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_TXD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_RXD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED2_GREEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED2_BLUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUTTON_PWM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RXDV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA SIGNAL GROUP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CON_75</t>
+  </si>
+  <si>
+    <t>CON_76</t>
+  </si>
+  <si>
+    <t>CON_77</t>
+  </si>
+  <si>
+    <t>CON_78</t>
+  </si>
+  <si>
+    <t>CON_79</t>
+  </si>
+  <si>
+    <t>CON_80</t>
+  </si>
+  <si>
+    <t>CON_81</t>
+  </si>
+  <si>
+    <t>CON_82</t>
+  </si>
+  <si>
+    <t>CON_83</t>
+  </si>
+  <si>
+    <t>CON_84</t>
+  </si>
+  <si>
+    <t>CON_86</t>
+  </si>
+  <si>
+    <t>CON_87</t>
+  </si>
+  <si>
+    <t>CON_88</t>
+  </si>
+  <si>
+    <t>CON_89</t>
+  </si>
+  <si>
+    <t>CON_90</t>
+  </si>
+  <si>
+    <t>CON_91</t>
+  </si>
+  <si>
+    <t>K12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂鸣器驱动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA板控制信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B50612控制信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA 板 Note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伺服板 Signal Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伺服板 Note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW_00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1_DIR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1_PULS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1_PULS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1_DIR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1_PULS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1_DIR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y2_PULS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y2_DIR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA_LOW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA_MIDU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA_HIGH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPND_OU0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLY3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLY2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLY1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLY0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPND_IN1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X_ORG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y_ORG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z_ORG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESTOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALIGN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSTART</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSTOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF_ZD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF_ZF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF_XF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF_ZG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF_XM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF_YM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF_ZM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF_ZZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF_DD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF_ZX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF_YX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF_XX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视恒模式SH模式，无效为‘1’</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X方向电机驱动脉冲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X方向电机驱动方向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z方向电机驱动脉冲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z方向电机驱动方向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1方向电机驱动脉冲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1方向电机驱动方向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主轴低速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主轴中速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主轴高速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展控制输出（备用）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器控制信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展输入（备用）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X原点行程开关输入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y原点行程开关输入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z原点行程开关输入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急停开关输入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对刀开关输入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序启开关输入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序停开关输入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伺服板控制信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对外电机控制信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维宏卡Z电机方向信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF_YF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维宏卡Y电机方向信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维宏卡X电机方向信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维宏卡主轴高速控制信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维宏卡主轴低速控制信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维宏卡X电机脉冲信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维宏卡Y电机脉冲信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维宏卡Z电机脉冲信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维宏卡主轴中速控制信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维宏卡对刀信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维宏卡Z电机限位信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维宏卡Y电机限位信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维宏卡X电机限位信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维宏卡连接器信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50M时钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接AT24C02用于加密</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出‘0’，点亮FPGA状态灯为绿色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4位拨码开关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA板LED1四色指示灯绿色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA板LED1四色指示灯蓝色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA板LED1四色指示灯黄色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA板设置串口，波特率921600、8、1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接AT88SC0204C用于加密</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA板载USB串口，废弃不用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH模式指示灯。绿色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH模式指示灯。蓝色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH模式指示灯。黄色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WH模式指示灯。红色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WH模式指示灯。绿色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WH模式指示灯。蓝色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WH模式指示灯。黄色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA板LED1四色指示灯红色,'0'点亮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA板LED2三色指示灯，'0'点亮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH模式指示灯。红色，'0'点亮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维宏模式WH模式，两种模式不可能同时有效。互斥关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺省值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA寄存器控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA状态寄存器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,8 +2028,50 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,8 +2090,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -532,31 +2134,293 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="20% - 着色 1" xfId="2" builtinId="30"/>
+    <cellStyle name="20% - 着色 2" xfId="3" builtinId="34"/>
+    <cellStyle name="20% - 着色 3" xfId="4" builtinId="38"/>
+    <cellStyle name="20% - 着色 4" xfId="5" builtinId="42"/>
+    <cellStyle name="20% - 着色 6" xfId="6" builtinId="50"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1521,7 +3385,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -1529,16 +3393,2942 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <cols>
+    <col min="1" max="1" width="19.125" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>494</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>496</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>497</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>512</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>499</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>500</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="43"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="41"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="43"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="43"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="43"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E39" s="41"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E40" s="41"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="43"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="43"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="43"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E44" s="41"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="43"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E45" s="41"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="43"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="16"/>
+    </row>
+    <row r="47" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="19"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="20"/>
+      <c r="B49" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="20"/>
+      <c r="B50" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="D50" s="18"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="19"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="20"/>
+      <c r="B51" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="20"/>
+      <c r="B52" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D52" s="18"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="19"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D53" s="18"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="20"/>
+      <c r="B54" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="19"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="20"/>
+      <c r="B55" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D55" s="18"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="20"/>
+      <c r="B56" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D56" s="18"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="19"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="20"/>
+      <c r="B57" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="D57" s="18"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="D58" s="18"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="19"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="B59" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D59" s="18"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="D60" s="18"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="19"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="B61" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D61" s="18"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="D62" s="18"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="19"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="20"/>
+      <c r="B63" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="D63" s="18"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="20"/>
+      <c r="B64" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D64" s="18"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="19"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="20"/>
+      <c r="B65" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D65" s="18"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="20"/>
+      <c r="B66" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="D66" s="18"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="19"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="20"/>
+      <c r="B67" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="D67" s="18"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="19"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="20"/>
+      <c r="B68" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="D68" s="18"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="19"/>
+    </row>
+    <row r="69" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="22"/>
+      <c r="B69" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="D69" s="18"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="D70" s="24"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="25"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="26"/>
+      <c r="B71" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="D71" s="24"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="25"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="26"/>
+      <c r="B72" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="D72" s="24"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="25"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="26"/>
+      <c r="B73" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="D73" s="24"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="25"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="26"/>
+      <c r="B74" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D74" s="24"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="25"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="26"/>
+      <c r="B75" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="25"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="26"/>
+      <c r="B76" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="D76" s="24"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="25"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="26"/>
+      <c r="B77" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="D77" s="24"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="25"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="26"/>
+      <c r="B78" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="25"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="26"/>
+      <c r="B79" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="D79" s="24"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="25"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="26"/>
+      <c r="B80" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="25"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="26"/>
+      <c r="B81" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="25"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="26"/>
+      <c r="B82" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="D82" s="24"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="25"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="26"/>
+      <c r="B83" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="D83" s="24"/>
+      <c r="E83" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H83" s="25" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="26"/>
+      <c r="B84" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="D84" s="24"/>
+      <c r="E84" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="26"/>
+      <c r="B85" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="D85" s="24"/>
+      <c r="E85" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H85" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="26"/>
+      <c r="B86" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="D86" s="24"/>
+      <c r="E86" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="G86" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H86" s="25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="26"/>
+      <c r="B87" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="D87" s="24"/>
+      <c r="E87" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H87" s="25" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="26"/>
+      <c r="B88" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="D88" s="24"/>
+      <c r="E88" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="G88" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H88" s="25" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="26"/>
+      <c r="B89" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="D89" s="24"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="25"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="26"/>
+      <c r="B90" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="D90" s="24"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="25"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="26"/>
+      <c r="B91" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="D91" s="24"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="25"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="26"/>
+      <c r="B92" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="D92" s="24"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="25"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="26"/>
+      <c r="B93" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="D93" s="24"/>
+      <c r="E93" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="G93" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H93" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="26"/>
+      <c r="B94" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="D94" s="24"/>
+      <c r="E94" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="G94" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H94" s="25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="26"/>
+      <c r="B95" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D95" s="24"/>
+      <c r="E95" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H95" s="25" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="26"/>
+      <c r="B96" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="D96" s="24"/>
+      <c r="E96" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H96" s="25" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="26"/>
+      <c r="B97" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="D97" s="24"/>
+      <c r="E97" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H97" s="25" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="26"/>
+      <c r="B98" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="D98" s="24"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="25"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="26"/>
+      <c r="B99" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D99" s="24"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="25"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="26"/>
+      <c r="B100" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="D100" s="24"/>
+      <c r="E100" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="G100" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="H100" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="26"/>
+      <c r="B101" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="D101" s="24"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="25"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="26"/>
+      <c r="B102" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="D102" s="24"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="25"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="26"/>
+      <c r="B103" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D103" s="24"/>
+      <c r="E103" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="G103" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H103" s="25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="26"/>
+      <c r="B104" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="D104" s="24"/>
+      <c r="E104" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F104" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="G104" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H104" s="25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="26"/>
+      <c r="B105" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="D105" s="24"/>
+      <c r="E105" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="G105" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H105" s="25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="26"/>
+      <c r="B106" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="D106" s="24"/>
+      <c r="E106" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="G106" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H106" s="25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="26"/>
+      <c r="B107" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="D107" s="24"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="25"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="26"/>
+      <c r="B108" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="D108" s="24"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="25"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="26"/>
+      <c r="B109" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="D109" s="24"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="25"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="26"/>
+      <c r="B110" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="D110" s="24"/>
+      <c r="E110" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="G110" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="H110" s="25" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="26"/>
+      <c r="B111" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="D111" s="24"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="25"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="26"/>
+      <c r="B112" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="D112" s="24"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="25"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="26"/>
+      <c r="B113" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="D113" s="24"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="25"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="26"/>
+      <c r="B114" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="D114" s="24"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="25"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="26"/>
+      <c r="B115" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D115" s="24"/>
+      <c r="E115" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="F115" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="G115" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="H115" s="25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="26"/>
+      <c r="B116" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D116" s="24"/>
+      <c r="E116" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="F116" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="G116" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="H116" s="25" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="26"/>
+      <c r="B117" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="D117" s="24"/>
+      <c r="E117" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="F117" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="G117" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="H117" s="25" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="26"/>
+      <c r="B118" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="D118" s="24"/>
+      <c r="E118" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="F118" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="G118" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="H118" s="25" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="26"/>
+      <c r="B119" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="D119" s="24"/>
+      <c r="E119" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="G119" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="H119" s="25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="26"/>
+      <c r="B120" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C120" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="D120" s="24"/>
+      <c r="E120" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="F120" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="G120" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="H120" s="25" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="27"/>
+      <c r="B121" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="D121" s="24"/>
+      <c r="E121" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="G121" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="H121" s="25" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="B122" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C122" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D122" s="29"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="30"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="31"/>
+      <c r="B123" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C123" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="D123" s="29"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="G123" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H123" s="30" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="31"/>
+      <c r="B124" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="D124" s="29"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="G124" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H124" s="30" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="31"/>
+      <c r="B125" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C125" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="D125" s="29"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="G125" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H125" s="30" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="31"/>
+      <c r="B126" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="C126" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="D126" s="29"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="G126" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H126" s="30" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="31"/>
+      <c r="B127" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C127" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D127" s="29"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="G127" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H127" s="30" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="31"/>
+      <c r="B128" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="D128" s="29"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="G128" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H128" s="30" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="31"/>
+      <c r="B129" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C129" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="D129" s="29"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="G129" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H129" s="30" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="31"/>
+      <c r="B130" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="C130" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="D130" s="29"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="G130" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H130" s="30" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="31"/>
+      <c r="B131" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C131" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="D131" s="29"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="30"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="31"/>
+      <c r="B132" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C132" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="D132" s="29"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="G132" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H132" s="30" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="31"/>
+      <c r="B133" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C133" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="D133" s="29"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="G133" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="H133" s="30" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="31"/>
+      <c r="B134" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C134" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="D134" s="29"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="G134" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="H134" s="30" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="31"/>
+      <c r="B135" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C135" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="D135" s="29"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="G135" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="H135" s="30" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="31"/>
+      <c r="B136" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="C136" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="D136" s="29"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="G136" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="H136" s="30" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="31"/>
+      <c r="B137" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C137" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="D137" s="29"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="30"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="32"/>
+      <c r="B138" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C138" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="D138" s="29"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A24:A45"/>
+    <mergeCell ref="A48:A69"/>
+    <mergeCell ref="A70:A121"/>
+    <mergeCell ref="A122:A138"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="A1:F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="44" t="s">
+        <v>515</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>475</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:C24"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/Falcon MC 接维宏卡定义.xlsx
+++ b/doc/Falcon MC 接维宏卡定义.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="连接器定义" sheetId="1" r:id="rId1"/>
     <sheet name="FPGA管脚对应表" sheetId="2" r:id="rId2"/>
     <sheet name="WH模式信号连接" sheetId="3" r:id="rId3"/>
+    <sheet name="FPGA输出FIFO总线定义" sheetId="4" r:id="rId4"/>
+    <sheet name="FPGA输入FIFO总线定义" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="570">
   <si>
     <t>维宏DB15连接器</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1988,6 +1990,169 @@
   </si>
   <si>
     <t>FPGA状态寄存器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1_PULS</t>
+  </si>
+  <si>
+    <t>X1_DIR</t>
+  </si>
+  <si>
+    <t>Y1_PULS</t>
+  </si>
+  <si>
+    <t>Y1_DIR</t>
+  </si>
+  <si>
+    <t>Z1_PULS</t>
+  </si>
+  <si>
+    <t>Z1_DIR</t>
+  </si>
+  <si>
+    <t>Y2_PULS</t>
+  </si>
+  <si>
+    <t>Y2_DIR</t>
+  </si>
+  <si>
+    <t>MA_LOW</t>
+  </si>
+  <si>
+    <t>MA_MIDU</t>
+  </si>
+  <si>
+    <t>MA_HIGH</t>
+  </si>
+  <si>
+    <t>EXPND_OU0</t>
+  </si>
+  <si>
+    <t>RLY3</t>
+  </si>
+  <si>
+    <t>RLY2</t>
+  </si>
+  <si>
+    <t>RLY1</t>
+  </si>
+  <si>
+    <t>RLY0</t>
+  </si>
+  <si>
+    <t>FPGA Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF_ZD</t>
+  </si>
+  <si>
+    <t>FF_ZF</t>
+  </si>
+  <si>
+    <t>FF_YF</t>
+  </si>
+  <si>
+    <t>FF_XF</t>
+  </si>
+  <si>
+    <t>FF_ZG</t>
+  </si>
+  <si>
+    <t>FF_XM</t>
+  </si>
+  <si>
+    <t>FF_YM</t>
+  </si>
+  <si>
+    <t>FF_ZM</t>
+  </si>
+  <si>
+    <t>FF_ZZ</t>
+  </si>
+  <si>
+    <t>SW_01</t>
+  </si>
+  <si>
+    <t>EXPND_IN1</t>
+  </si>
+  <si>
+    <t>X_ORG</t>
+  </si>
+  <si>
+    <t>Y_ORG</t>
+  </si>
+  <si>
+    <t>Z_ORG</t>
+  </si>
+  <si>
+    <t>ESTOP</t>
+  </si>
+  <si>
+    <t>PSTART</t>
+  </si>
+  <si>
+    <t>PSTOP</t>
+  </si>
+  <si>
+    <t>ALIGN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWITCH_SET0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWITCH_SET3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED2_RED</t>
+  </si>
+  <si>
+    <t>LED2_GREEN</t>
+  </si>
+  <si>
+    <t>LED2_BLUE</t>
+  </si>
+  <si>
+    <t>LED_LIGHT0</t>
+  </si>
+  <si>
+    <t>BUZZER_EN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED0</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>LED3</t>
+  </si>
+  <si>
+    <t>LED4</t>
+  </si>
+  <si>
+    <t>LED5</t>
+  </si>
+  <si>
+    <t>LED6</t>
+  </si>
+  <si>
+    <t>LED7</t>
+  </si>
+  <si>
+    <t>Bits</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2071,7 +2236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2123,6 +2288,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2274,7 +2445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2288,15 +2459,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2313,17 +2475,11 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2331,10 +2487,43 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2342,12 +2531,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2358,23 +2541,20 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2383,15 +2563,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2409,7 +2580,13 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2717,10 +2894,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
@@ -3395,443 +3572,443 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.125" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="33"/>
+    <col min="1" max="1" width="19.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="35" t="s">
         <v>494</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="35" t="s">
         <v>495</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="35" t="s">
         <v>496</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="35" t="s">
         <v>497</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="35" t="s">
         <v>512</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="35" t="s">
         <v>511</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="35" t="s">
         <v>498</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="35" t="s">
         <v>499</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="35" t="s">
         <v>500</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="35" t="s">
         <v>501</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="35" t="s">
         <v>503</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="10" t="s">
         <v>284</v>
       </c>
       <c r="E24" s="41"/>
@@ -3840,14 +4017,14 @@
       <c r="H24" s="43"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="10" t="s">
         <v>286</v>
       </c>
       <c r="E25" s="41"/>
@@ -3856,14 +4033,14 @@
       <c r="H25" s="43"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="10" t="s">
         <v>288</v>
       </c>
       <c r="E26" s="41"/>
@@ -3872,14 +4049,14 @@
       <c r="H26" s="43"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="10" t="s">
         <v>275</v>
       </c>
       <c r="E27" s="41"/>
@@ -3888,14 +4065,14 @@
       <c r="H27" s="43"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="10" t="s">
         <v>291</v>
       </c>
       <c r="E28" s="41"/>
@@ -3904,14 +4081,14 @@
       <c r="H28" s="43"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="10" t="s">
         <v>291</v>
       </c>
       <c r="E29" s="41"/>
@@ -3920,14 +4097,14 @@
       <c r="H29" s="43"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="25"/>
+      <c r="B30" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="10" t="s">
         <v>294</v>
       </c>
       <c r="E30" s="41"/>
@@ -3936,14 +4113,14 @@
       <c r="H30" s="43"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="25"/>
+      <c r="B31" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="10" t="s">
         <v>291</v>
       </c>
       <c r="E31" s="41"/>
@@ -3952,14 +4129,14 @@
       <c r="H31" s="43"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="10" t="s">
         <v>291</v>
       </c>
       <c r="E32" s="41"/>
@@ -3968,14 +4145,14 @@
       <c r="H32" s="43"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="10" t="s">
         <v>275</v>
       </c>
       <c r="E33" s="41"/>
@@ -3984,14 +4161,14 @@
       <c r="H33" s="43"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14" t="s">
+      <c r="A34" s="25"/>
+      <c r="B34" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="10" t="s">
         <v>288</v>
       </c>
       <c r="E34" s="41"/>
@@ -4000,14 +4177,14 @@
       <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="10" t="s">
         <v>300</v>
       </c>
       <c r="E35" s="41"/>
@@ -4016,14 +4193,14 @@
       <c r="H35" s="43"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="10" t="s">
         <v>300</v>
       </c>
       <c r="E36" s="41"/>
@@ -4032,14 +4209,14 @@
       <c r="H36" s="43"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="10" t="s">
         <v>300</v>
       </c>
       <c r="E37" s="41"/>
@@ -4048,14 +4225,14 @@
       <c r="H37" s="43"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14" t="s">
+      <c r="A38" s="25"/>
+      <c r="B38" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="10" t="s">
         <v>300</v>
       </c>
       <c r="E38" s="41"/>
@@ -4064,14 +4241,14 @@
       <c r="H38" s="43"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14" t="s">
+      <c r="A39" s="25"/>
+      <c r="B39" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="10" t="s">
         <v>300</v>
       </c>
       <c r="E39" s="41"/>
@@ -4080,14 +4257,14 @@
       <c r="H39" s="43"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14" t="s">
+      <c r="A40" s="25"/>
+      <c r="B40" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="10" t="s">
         <v>253</v>
       </c>
       <c r="E40" s="41"/>
@@ -4096,14 +4273,14 @@
       <c r="H40" s="43"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14" t="s">
+      <c r="A41" s="25"/>
+      <c r="B41" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="10" t="s">
         <v>253</v>
       </c>
       <c r="E41" s="41"/>
@@ -4112,14 +4289,14 @@
       <c r="H41" s="43"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14" t="s">
+      <c r="A42" s="25"/>
+      <c r="B42" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="10" t="s">
         <v>253</v>
       </c>
       <c r="E42" s="41"/>
@@ -4128,14 +4305,14 @@
       <c r="H42" s="43"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14" t="s">
+      <c r="A43" s="25"/>
+      <c r="B43" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="10" t="s">
         <v>253</v>
       </c>
       <c r="E43" s="41"/>
@@ -4144,14 +4321,14 @@
       <c r="H43" s="43"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14" t="s">
+      <c r="A44" s="25"/>
+      <c r="B44" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="10" t="s">
         <v>253</v>
       </c>
       <c r="E44" s="41"/>
@@ -4160,14 +4337,14 @@
       <c r="H44" s="43"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14" t="s">
+      <c r="A45" s="25"/>
+      <c r="B45" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="10" t="s">
         <v>253</v>
       </c>
       <c r="E45" s="41"/>
@@ -4176,1659 +4353,1659 @@
       <c r="H45" s="43"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="16"/>
-    </row>
-    <row r="47" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="19"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="18" t="s">
+      <c r="A49" s="27"/>
+      <c r="B49" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="18" t="s">
+      <c r="D49" s="13"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="H49" s="19" t="s">
+      <c r="H49" s="14" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="18" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="19"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="18" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="18" t="s">
+      <c r="D51" s="13"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="H51" s="19" t="s">
+      <c r="H51" s="14" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="18" t="s">
+      <c r="A52" s="27"/>
+      <c r="B52" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="19"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="18" t="s">
+      <c r="A53" s="27"/>
+      <c r="B53" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="18" t="s">
+      <c r="D53" s="13"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="G53" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="H53" s="19" t="s">
+      <c r="H53" s="14" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="18" t="s">
+      <c r="A54" s="27"/>
+      <c r="B54" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="19"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="18" t="s">
+      <c r="A55" s="27"/>
+      <c r="B55" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="18" t="s">
+      <c r="D55" s="13"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="G55" s="18" t="s">
+      <c r="G55" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="H55" s="19" t="s">
+      <c r="H55" s="14" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="18" t="s">
+      <c r="A56" s="27"/>
+      <c r="B56" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="18" t="s">
+      <c r="A57" s="27"/>
+      <c r="B57" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="18" t="s">
+      <c r="D57" s="13"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="G57" s="18" t="s">
+      <c r="G57" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="H57" s="19" t="s">
+      <c r="H57" s="14" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="18" t="s">
+      <c r="A58" s="27"/>
+      <c r="B58" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="19"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" s="18" t="s">
+      <c r="A59" s="27"/>
+      <c r="B59" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="18" t="s">
+      <c r="D59" s="13"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="G59" s="18" t="s">
+      <c r="G59" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="H59" s="19" t="s">
+      <c r="H59" s="14" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="18" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="19"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="18" t="s">
+      <c r="A61" s="27"/>
+      <c r="B61" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="18" t="s">
+      <c r="D61" s="13"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G61" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="H61" s="19" t="s">
+      <c r="H61" s="14" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="18" t="s">
+      <c r="A62" s="27"/>
+      <c r="B62" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="19"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
-      <c r="B63" s="18" t="s">
+      <c r="A63" s="27"/>
+      <c r="B63" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="18" t="s">
+      <c r="D63" s="13"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="H63" s="19" t="s">
+      <c r="H63" s="14" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="20"/>
-      <c r="B64" s="18" t="s">
+      <c r="A64" s="27"/>
+      <c r="B64" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="19"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="20"/>
-      <c r="B65" s="18" t="s">
+      <c r="A65" s="27"/>
+      <c r="B65" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="18" t="s">
+      <c r="D65" s="13"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="H65" s="19" t="s">
+      <c r="H65" s="14" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
-      <c r="B66" s="18" t="s">
+      <c r="A66" s="27"/>
+      <c r="B66" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="19"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="20"/>
-      <c r="B67" s="18" t="s">
+      <c r="A67" s="27"/>
+      <c r="B67" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="19"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="14"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="20"/>
-      <c r="B68" s="18" t="s">
+      <c r="A68" s="27"/>
+      <c r="B68" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="19"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="22"/>
-      <c r="B69" s="18" t="s">
+      <c r="A69" s="28"/>
+      <c r="B69" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="D69" s="18"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="18" t="s">
+      <c r="D69" s="13"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="G69" s="18" t="s">
+      <c r="G69" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="H69" s="19" t="s">
+      <c r="H69" s="14" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="D70" s="24"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="25"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="17"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="26"/>
-      <c r="B71" s="24" t="s">
+      <c r="A71" s="30"/>
+      <c r="B71" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="D71" s="24"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="25"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="17"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="26"/>
-      <c r="B72" s="24" t="s">
+      <c r="A72" s="30"/>
+      <c r="B72" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="25"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="17"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="26"/>
-      <c r="B73" s="24" t="s">
+      <c r="A73" s="30"/>
+      <c r="B73" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="D73" s="24"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="25"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="17"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="26"/>
-      <c r="B74" s="24" t="s">
+      <c r="A74" s="30"/>
+      <c r="B74" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="D74" s="24"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="25"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="17"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="26"/>
-      <c r="B75" s="24" t="s">
+      <c r="A75" s="30"/>
+      <c r="B75" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="D75" s="24"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="25"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="17"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="26"/>
-      <c r="B76" s="24" t="s">
+      <c r="A76" s="30"/>
+      <c r="B76" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="D76" s="24"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="25"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="17"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="26"/>
-      <c r="B77" s="24" t="s">
+      <c r="A77" s="30"/>
+      <c r="B77" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="D77" s="24"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="25"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="17"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="26"/>
-      <c r="B78" s="24" t="s">
+      <c r="A78" s="30"/>
+      <c r="B78" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="D78" s="24"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="25"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="17"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="26"/>
-      <c r="B79" s="24" t="s">
+      <c r="A79" s="30"/>
+      <c r="B79" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="D79" s="24"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="25"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="17"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="26"/>
-      <c r="B80" s="24" t="s">
+      <c r="A80" s="30"/>
+      <c r="B80" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="D80" s="24"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="25"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="17"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="26"/>
-      <c r="B81" s="24" t="s">
+      <c r="A81" s="30"/>
+      <c r="B81" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C81" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="D81" s="24"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="25"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="17"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="26"/>
-      <c r="B82" s="24" t="s">
+      <c r="A82" s="30"/>
+      <c r="B82" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="D82" s="24"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="25"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="17"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="26"/>
-      <c r="B83" s="24" t="s">
+      <c r="A83" s="30"/>
+      <c r="B83" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="25" t="s">
+      <c r="D83" s="16"/>
+      <c r="E83" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="F83" s="24" t="s">
+      <c r="F83" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="G83" s="24" t="s">
+      <c r="G83" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H83" s="25" t="s">
+      <c r="H83" s="17" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="26"/>
-      <c r="B84" s="24" t="s">
+      <c r="A84" s="30"/>
+      <c r="B84" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="D84" s="24"/>
-      <c r="E84" s="25" t="s">
+      <c r="D84" s="16"/>
+      <c r="E84" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="F84" s="24" t="s">
+      <c r="F84" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="G84" s="24" t="s">
+      <c r="G84" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H84" s="25" t="s">
+      <c r="H84" s="17" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="26"/>
-      <c r="B85" s="24" t="s">
+      <c r="A85" s="30"/>
+      <c r="B85" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="D85" s="24"/>
-      <c r="E85" s="25" t="s">
+      <c r="D85" s="16"/>
+      <c r="E85" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="F85" s="24" t="s">
+      <c r="F85" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="G85" s="24" t="s">
+      <c r="G85" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H85" s="25" t="s">
+      <c r="H85" s="17" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="26"/>
-      <c r="B86" s="24" t="s">
+      <c r="A86" s="30"/>
+      <c r="B86" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C86" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="D86" s="24"/>
-      <c r="E86" s="25" t="s">
+      <c r="D86" s="16"/>
+      <c r="E86" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="F86" s="24" t="s">
+      <c r="F86" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="G86" s="24" t="s">
+      <c r="G86" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H86" s="25" t="s">
+      <c r="H86" s="17" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="26"/>
-      <c r="B87" s="24" t="s">
+      <c r="A87" s="30"/>
+      <c r="B87" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="D87" s="24"/>
-      <c r="E87" s="25" t="s">
+      <c r="D87" s="16"/>
+      <c r="E87" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="F87" s="24" t="s">
+      <c r="F87" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="G87" s="24" t="s">
+      <c r="G87" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H87" s="25" t="s">
+      <c r="H87" s="17" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="26"/>
-      <c r="B88" s="24" t="s">
+      <c r="A88" s="30"/>
+      <c r="B88" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="D88" s="24"/>
-      <c r="E88" s="25" t="s">
+      <c r="D88" s="16"/>
+      <c r="E88" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="F88" s="24" t="s">
+      <c r="F88" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="G88" s="24" t="s">
+      <c r="G88" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H88" s="25" t="s">
+      <c r="H88" s="17" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="26"/>
-      <c r="B89" s="24" t="s">
+      <c r="A89" s="30"/>
+      <c r="B89" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="C89" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="D89" s="24"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="25"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="17"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="26"/>
-      <c r="B90" s="24" t="s">
+      <c r="A90" s="30"/>
+      <c r="B90" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="C90" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="D90" s="24"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="25"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="17"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="26"/>
-      <c r="B91" s="24" t="s">
+      <c r="A91" s="30"/>
+      <c r="B91" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C91" s="24" t="s">
+      <c r="C91" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="D91" s="24"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="25"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="17"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="26"/>
-      <c r="B92" s="24" t="s">
+      <c r="A92" s="30"/>
+      <c r="B92" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="C92" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="D92" s="24"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="25"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="17"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="26"/>
-      <c r="B93" s="24" t="s">
+      <c r="A93" s="30"/>
+      <c r="B93" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="D93" s="24"/>
-      <c r="E93" s="25" t="s">
+      <c r="D93" s="16"/>
+      <c r="E93" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="F93" s="24" t="s">
+      <c r="F93" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="G93" s="24" t="s">
+      <c r="G93" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H93" s="25" t="s">
+      <c r="H93" s="17" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="26"/>
-      <c r="B94" s="24" t="s">
+      <c r="A94" s="30"/>
+      <c r="B94" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="D94" s="24"/>
-      <c r="E94" s="25" t="s">
+      <c r="D94" s="16"/>
+      <c r="E94" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="F94" s="24" t="s">
+      <c r="F94" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="G94" s="24" t="s">
+      <c r="G94" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H94" s="25" t="s">
+      <c r="H94" s="17" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="26"/>
-      <c r="B95" s="24" t="s">
+      <c r="A95" s="30"/>
+      <c r="B95" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C95" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="D95" s="24"/>
-      <c r="E95" s="25" t="s">
+      <c r="D95" s="16"/>
+      <c r="E95" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="F95" s="24" t="s">
+      <c r="F95" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="G95" s="24" t="s">
+      <c r="G95" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H95" s="25" t="s">
+      <c r="H95" s="17" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="26"/>
-      <c r="B96" s="24" t="s">
+      <c r="A96" s="30"/>
+      <c r="B96" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="D96" s="24"/>
-      <c r="E96" s="25" t="s">
+      <c r="D96" s="16"/>
+      <c r="E96" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="F96" s="24" t="s">
+      <c r="F96" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="G96" s="24" t="s">
+      <c r="G96" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H96" s="25" t="s">
+      <c r="H96" s="17" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="26"/>
-      <c r="B97" s="24" t="s">
+      <c r="A97" s="30"/>
+      <c r="B97" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="D97" s="24"/>
-      <c r="E97" s="25" t="s">
+      <c r="D97" s="16"/>
+      <c r="E97" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="F97" s="24" t="s">
+      <c r="F97" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="G97" s="24" t="s">
+      <c r="G97" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H97" s="25" t="s">
+      <c r="H97" s="17" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="26"/>
-      <c r="B98" s="24" t="s">
+      <c r="A98" s="30"/>
+      <c r="B98" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C98" s="24" t="s">
+      <c r="C98" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="D98" s="24"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="25"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="17"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="26"/>
-      <c r="B99" s="24" t="s">
+      <c r="A99" s="30"/>
+      <c r="B99" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="C99" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="D99" s="24"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="25"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="17"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="26"/>
-      <c r="B100" s="24" t="s">
+      <c r="A100" s="30"/>
+      <c r="B100" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C100" s="24" t="s">
+      <c r="C100" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="D100" s="24"/>
-      <c r="E100" s="25" t="s">
+      <c r="D100" s="16"/>
+      <c r="E100" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="F100" s="24" t="s">
+      <c r="F100" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="G100" s="24" t="s">
+      <c r="G100" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="H100" s="25" t="s">
+      <c r="H100" s="17" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="26"/>
-      <c r="B101" s="24" t="s">
+      <c r="A101" s="30"/>
+      <c r="B101" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="C101" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="D101" s="24"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="25"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="17"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="26"/>
-      <c r="B102" s="24" t="s">
+      <c r="A102" s="30"/>
+      <c r="B102" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C102" s="24" t="s">
+      <c r="C102" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="D102" s="24"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="25"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="17"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="26"/>
-      <c r="B103" s="24" t="s">
+      <c r="A103" s="30"/>
+      <c r="B103" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C103" s="24" t="s">
+      <c r="C103" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="D103" s="24"/>
-      <c r="E103" s="25" t="s">
+      <c r="D103" s="16"/>
+      <c r="E103" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="F103" s="24" t="s">
+      <c r="F103" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="G103" s="24" t="s">
+      <c r="G103" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H103" s="25" t="s">
+      <c r="H103" s="17" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="26"/>
-      <c r="B104" s="24" t="s">
+      <c r="A104" s="30"/>
+      <c r="B104" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C104" s="24" t="s">
+      <c r="C104" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="D104" s="24"/>
-      <c r="E104" s="25" t="s">
+      <c r="D104" s="16"/>
+      <c r="E104" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="F104" s="24" t="s">
+      <c r="F104" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="G104" s="24" t="s">
+      <c r="G104" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H104" s="25" t="s">
+      <c r="H104" s="17" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="26"/>
-      <c r="B105" s="24" t="s">
+      <c r="A105" s="30"/>
+      <c r="B105" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C105" s="24" t="s">
+      <c r="C105" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="D105" s="24"/>
-      <c r="E105" s="25" t="s">
+      <c r="D105" s="16"/>
+      <c r="E105" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="F105" s="24" t="s">
+      <c r="F105" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="G105" s="24" t="s">
+      <c r="G105" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H105" s="25" t="s">
+      <c r="H105" s="17" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="26"/>
-      <c r="B106" s="24" t="s">
+      <c r="A106" s="30"/>
+      <c r="B106" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C106" s="24" t="s">
+      <c r="C106" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="D106" s="24"/>
-      <c r="E106" s="25" t="s">
+      <c r="D106" s="16"/>
+      <c r="E106" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="F106" s="24" t="s">
+      <c r="F106" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="G106" s="24" t="s">
+      <c r="G106" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H106" s="25" t="s">
+      <c r="H106" s="17" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="26"/>
-      <c r="B107" s="24" t="s">
+      <c r="A107" s="30"/>
+      <c r="B107" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C107" s="24" t="s">
+      <c r="C107" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="D107" s="24"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="25"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="17"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="26"/>
-      <c r="B108" s="24" t="s">
+      <c r="A108" s="30"/>
+      <c r="B108" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C108" s="24" t="s">
+      <c r="C108" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="D108" s="24"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="25"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="17"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="26"/>
-      <c r="B109" s="24" t="s">
+      <c r="A109" s="30"/>
+      <c r="B109" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C109" s="24" t="s">
+      <c r="C109" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="D109" s="24"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="25"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="17"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="26"/>
-      <c r="B110" s="24" t="s">
+      <c r="A110" s="30"/>
+      <c r="B110" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C110" s="24" t="s">
+      <c r="C110" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="D110" s="24"/>
-      <c r="E110" s="25" t="s">
+      <c r="D110" s="16"/>
+      <c r="E110" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="F110" s="24" t="s">
+      <c r="F110" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="G110" s="24" t="s">
+      <c r="G110" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="H110" s="25" t="s">
+      <c r="H110" s="17" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="26"/>
-      <c r="B111" s="24" t="s">
+      <c r="A111" s="30"/>
+      <c r="B111" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C111" s="24" t="s">
+      <c r="C111" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="D111" s="24"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="25"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="17"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="26"/>
-      <c r="B112" s="24" t="s">
+      <c r="A112" s="30"/>
+      <c r="B112" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C112" s="24" t="s">
+      <c r="C112" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="D112" s="24"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="25"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="17"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="26"/>
-      <c r="B113" s="24" t="s">
+      <c r="A113" s="30"/>
+      <c r="B113" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C113" s="24" t="s">
+      <c r="C113" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="D113" s="24"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="25"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="17"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="26"/>
-      <c r="B114" s="24" t="s">
+      <c r="A114" s="30"/>
+      <c r="B114" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C114" s="24" t="s">
+      <c r="C114" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="D114" s="24"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="25"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="17"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="26"/>
-      <c r="B115" s="24" t="s">
+      <c r="A115" s="30"/>
+      <c r="B115" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C115" s="24" t="s">
+      <c r="C115" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="D115" s="24"/>
-      <c r="E115" s="25" t="s">
+      <c r="D115" s="16"/>
+      <c r="E115" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="F115" s="24" t="s">
+      <c r="F115" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="G115" s="24" t="s">
+      <c r="G115" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="H115" s="25" t="s">
+      <c r="H115" s="17" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="26"/>
-      <c r="B116" s="24" t="s">
+      <c r="A116" s="30"/>
+      <c r="B116" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="C116" s="24" t="s">
+      <c r="C116" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="D116" s="24"/>
-      <c r="E116" s="25" t="s">
+      <c r="D116" s="16"/>
+      <c r="E116" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="F116" s="24" t="s">
+      <c r="F116" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="G116" s="24" t="s">
+      <c r="G116" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="H116" s="25" t="s">
+      <c r="H116" s="17" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="26"/>
-      <c r="B117" s="24" t="s">
+      <c r="A117" s="30"/>
+      <c r="B117" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C117" s="24" t="s">
+      <c r="C117" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="D117" s="24"/>
-      <c r="E117" s="25" t="s">
+      <c r="D117" s="16"/>
+      <c r="E117" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="F117" s="24" t="s">
+      <c r="F117" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="G117" s="24" t="s">
+      <c r="G117" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="H117" s="25" t="s">
+      <c r="H117" s="17" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="26"/>
-      <c r="B118" s="24" t="s">
+      <c r="A118" s="30"/>
+      <c r="B118" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C118" s="24" t="s">
+      <c r="C118" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="D118" s="24"/>
-      <c r="E118" s="25" t="s">
+      <c r="D118" s="16"/>
+      <c r="E118" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="F118" s="24" t="s">
+      <c r="F118" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="G118" s="24" t="s">
+      <c r="G118" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="H118" s="25" t="s">
+      <c r="H118" s="17" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="26"/>
-      <c r="B119" s="24" t="s">
+      <c r="A119" s="30"/>
+      <c r="B119" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="D119" s="24"/>
-      <c r="E119" s="25" t="s">
+      <c r="D119" s="16"/>
+      <c r="E119" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="F119" s="24" t="s">
+      <c r="F119" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="G119" s="24" t="s">
+      <c r="G119" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="H119" s="25" t="s">
+      <c r="H119" s="17" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="26"/>
-      <c r="B120" s="24" t="s">
+      <c r="A120" s="30"/>
+      <c r="B120" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C120" s="24" t="s">
+      <c r="C120" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="D120" s="24"/>
-      <c r="E120" s="25" t="s">
+      <c r="D120" s="16"/>
+      <c r="E120" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="F120" s="24" t="s">
+      <c r="F120" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="G120" s="24" t="s">
+      <c r="G120" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="H120" s="25" t="s">
+      <c r="H120" s="17" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="27"/>
-      <c r="B121" s="24" t="s">
+      <c r="A121" s="31"/>
+      <c r="B121" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="C121" s="24" t="s">
+      <c r="C121" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="D121" s="24"/>
-      <c r="E121" s="25" t="s">
+      <c r="D121" s="16"/>
+      <c r="E121" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="F121" s="24" t="s">
+      <c r="F121" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="G121" s="24" t="s">
+      <c r="G121" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="H121" s="25" t="s">
+      <c r="H121" s="17" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="28" t="s">
+      <c r="A122" s="32" t="s">
         <v>493</v>
       </c>
-      <c r="B122" s="29" t="s">
+      <c r="B122" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="C122" s="29" t="s">
+      <c r="C122" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="D122" s="29"/>
-      <c r="E122" s="30"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="29"/>
-      <c r="H122" s="30"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="19"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="31"/>
-      <c r="B123" s="29" t="s">
+      <c r="A123" s="33"/>
+      <c r="B123" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="C123" s="29" t="s">
+      <c r="C123" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="D123" s="29"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="29" t="s">
+      <c r="D123" s="18"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="G123" s="29" t="s">
+      <c r="G123" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="H123" s="30" t="s">
+      <c r="H123" s="19" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="31"/>
-      <c r="B124" s="29" t="s">
+      <c r="A124" s="33"/>
+      <c r="B124" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="C124" s="29" t="s">
+      <c r="C124" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="D124" s="29"/>
-      <c r="E124" s="30"/>
-      <c r="F124" s="29" t="s">
+      <c r="D124" s="18"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="G124" s="29" t="s">
+      <c r="G124" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="H124" s="30" t="s">
+      <c r="H124" s="19" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="31"/>
-      <c r="B125" s="29" t="s">
+      <c r="A125" s="33"/>
+      <c r="B125" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="C125" s="29" t="s">
+      <c r="C125" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="D125" s="29"/>
-      <c r="E125" s="30"/>
-      <c r="F125" s="29" t="s">
+      <c r="D125" s="18"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="G125" s="29" t="s">
+      <c r="G125" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="H125" s="30" t="s">
+      <c r="H125" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="31"/>
-      <c r="B126" s="29" t="s">
+      <c r="A126" s="33"/>
+      <c r="B126" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="C126" s="29" t="s">
+      <c r="C126" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="D126" s="29"/>
-      <c r="E126" s="30"/>
-      <c r="F126" s="29" t="s">
+      <c r="D126" s="18"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="G126" s="29" t="s">
+      <c r="G126" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="H126" s="30" t="s">
+      <c r="H126" s="19" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="31"/>
-      <c r="B127" s="29" t="s">
+      <c r="A127" s="33"/>
+      <c r="B127" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="C127" s="29" t="s">
+      <c r="C127" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="D127" s="29"/>
-      <c r="E127" s="30"/>
-      <c r="F127" s="29" t="s">
+      <c r="D127" s="18"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="G127" s="29" t="s">
+      <c r="G127" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="H127" s="30" t="s">
+      <c r="H127" s="19" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="31"/>
-      <c r="B128" s="29" t="s">
+      <c r="A128" s="33"/>
+      <c r="B128" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C128" s="29" t="s">
+      <c r="C128" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="D128" s="29"/>
-      <c r="E128" s="30"/>
-      <c r="F128" s="29" t="s">
+      <c r="D128" s="18"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="G128" s="29" t="s">
+      <c r="G128" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="H128" s="30" t="s">
+      <c r="H128" s="19" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="31"/>
-      <c r="B129" s="29" t="s">
+      <c r="A129" s="33"/>
+      <c r="B129" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="C129" s="29" t="s">
+      <c r="C129" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="D129" s="29"/>
-      <c r="E129" s="30"/>
-      <c r="F129" s="29" t="s">
+      <c r="D129" s="18"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="G129" s="29" t="s">
+      <c r="G129" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="H129" s="30" t="s">
+      <c r="H129" s="19" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="31"/>
-      <c r="B130" s="29" t="s">
+      <c r="A130" s="33"/>
+      <c r="B130" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C130" s="29" t="s">
+      <c r="C130" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="D130" s="29"/>
-      <c r="E130" s="30"/>
-      <c r="F130" s="29" t="s">
+      <c r="D130" s="18"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="G130" s="29" t="s">
+      <c r="G130" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="H130" s="30" t="s">
+      <c r="H130" s="19" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="31"/>
-      <c r="B131" s="29" t="s">
+      <c r="A131" s="33"/>
+      <c r="B131" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C131" s="29" t="s">
+      <c r="C131" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="D131" s="29"/>
-      <c r="E131" s="30"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="29"/>
-      <c r="H131" s="30"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="19"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="31"/>
-      <c r="B132" s="29" t="s">
+      <c r="A132" s="33"/>
+      <c r="B132" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="C132" s="29" t="s">
+      <c r="C132" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="D132" s="29"/>
-      <c r="E132" s="30"/>
-      <c r="F132" s="29" t="s">
+      <c r="D132" s="18"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="G132" s="29" t="s">
+      <c r="G132" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="H132" s="30" t="s">
+      <c r="H132" s="19" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="31"/>
-      <c r="B133" s="29" t="s">
+      <c r="A133" s="33"/>
+      <c r="B133" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="C133" s="29" t="s">
+      <c r="C133" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="D133" s="29"/>
-      <c r="E133" s="30"/>
-      <c r="F133" s="29" t="s">
+      <c r="D133" s="18"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="G133" s="29" t="s">
+      <c r="G133" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="H133" s="30" t="s">
+      <c r="H133" s="19" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="31"/>
-      <c r="B134" s="29" t="s">
+      <c r="A134" s="33"/>
+      <c r="B134" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="C134" s="29" t="s">
+      <c r="C134" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="D134" s="29"/>
-      <c r="E134" s="30"/>
-      <c r="F134" s="29" t="s">
+      <c r="D134" s="18"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="G134" s="29" t="s">
+      <c r="G134" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="H134" s="30" t="s">
+      <c r="H134" s="19" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="31"/>
-      <c r="B135" s="29" t="s">
+      <c r="A135" s="33"/>
+      <c r="B135" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C135" s="29" t="s">
+      <c r="C135" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="D135" s="29"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="29" t="s">
+      <c r="D135" s="18"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="G135" s="29" t="s">
+      <c r="G135" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="H135" s="30" t="s">
+      <c r="H135" s="19" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="31"/>
-      <c r="B136" s="29" t="s">
+      <c r="A136" s="33"/>
+      <c r="B136" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="C136" s="29" t="s">
+      <c r="C136" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="D136" s="29"/>
-      <c r="E136" s="30"/>
-      <c r="F136" s="29" t="s">
+      <c r="D136" s="18"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="G136" s="29" t="s">
+      <c r="G136" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="H136" s="30" t="s">
+      <c r="H136" s="19" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="31"/>
-      <c r="B137" s="29" t="s">
+      <c r="A137" s="33"/>
+      <c r="B137" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="C137" s="29" t="s">
+      <c r="C137" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="D137" s="29"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="29"/>
-      <c r="H137" s="30"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="18"/>
+      <c r="H137" s="19"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="32"/>
-      <c r="B138" s="29" t="s">
+      <c r="A138" s="34"/>
+      <c r="B138" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="C138" s="29" t="s">
+      <c r="C138" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="D138" s="29"/>
-      <c r="E138" s="30"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="29"/>
-      <c r="H138" s="30"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -5837,11 +6014,6 @@
     <mergeCell ref="E43:H43"/>
     <mergeCell ref="E44:H44"/>
     <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
     <mergeCell ref="E40:H40"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="E30:H30"/>
@@ -5849,11 +6021,11 @@
     <mergeCell ref="E32:H32"/>
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
@@ -5861,11 +6033,11 @@
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="E2:H2"/>
@@ -5873,15 +6045,20 @@
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="A24:A45"/>
     <mergeCell ref="A48:A69"/>
     <mergeCell ref="A70:A121"/>
     <mergeCell ref="A122:A138"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5909,262 +6086,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="17" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="17" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="17" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="17" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="17" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="17" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="17" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="17" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="17" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="17" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="17" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="17" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="17" t="s">
         <v>469</v>
       </c>
     </row>
@@ -6174,153 +6351,153 @@
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="45"/>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="17" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="24" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="17" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="24" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="17" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="24" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="17" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="24" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="17" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="24" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="17" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="24" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="17" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="24" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="17" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="24" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="17" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="24" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="17" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="24" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -6331,4 +6508,499 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="22">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="22">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="22">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="22">
+        <v>11</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
+        <v>12</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="22">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="22">
+        <v>14</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
+        <v>15</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
+        <v>16</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="22">
+        <v>17</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="22">
+        <v>18</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="22">
+        <v>19</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="22">
+        <v>21</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="22">
+        <v>22</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="22">
+        <v>23</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="22">
+        <v>24</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="22">
+        <v>25</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="22">
+        <v>26</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="22">
+        <v>27</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="22">
+        <v>28</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="22">
+        <v>29</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="22">
+        <v>30</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="22">
+        <v>31</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>568</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="22">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="22">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="22">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="22">
+        <v>11</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
+        <v>12</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="22">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="22">
+        <v>14</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
+        <v>15</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
+        <v>16</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="22">
+        <v>17</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="22">
+        <v>18</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="22">
+        <v>19</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="22">
+        <v>21</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="22">
+        <v>22</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>555</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/Falcon MC 接维宏卡定义.xlsx
+++ b/doc/Falcon MC 接维宏卡定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="连接器定义" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="577">
   <si>
     <t>维宏DB15连接器</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2153,6 +2153,34 @@
   </si>
   <si>
     <t>Bits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器控制，开关量，不需要实时控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制1KHz方波是否输出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WH模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨码开关，上电采集一次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2160,7 +2188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2235,8 +2263,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2293,6 +2329,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2424,7 +2471,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -2444,8 +2491,11 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2511,8 +2561,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2547,33 +2627,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2586,17 +2639,30 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="20% - 着色 1" xfId="2" builtinId="30"/>
     <cellStyle name="20% - 着色 2" xfId="3" builtinId="34"/>
     <cellStyle name="20% - 着色 3" xfId="4" builtinId="38"/>
     <cellStyle name="20% - 着色 4" xfId="5" builtinId="42"/>
     <cellStyle name="20% - 着色 6" xfId="6" builtinId="50"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="7" builtinId="26"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2894,10 +2960,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
@@ -3602,12 +3668,12 @@
       <c r="D1" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
@@ -3619,7 +3685,7 @@
       <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="34" t="s">
         <v>311</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -3631,15 +3697,15 @@
       <c r="D2" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="28" t="s">
         <v>494</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="9" t="s">
         <v>146</v>
       </c>
@@ -3649,15 +3715,15 @@
       <c r="D3" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="9" t="s">
         <v>147</v>
       </c>
@@ -3667,13 +3733,13 @@
       <c r="D4" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="9" t="s">
         <v>149</v>
       </c>
@@ -3683,15 +3749,15 @@
       <c r="D5" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="28" t="s">
         <v>496</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="9" t="s">
         <v>195</v>
       </c>
@@ -3701,15 +3767,15 @@
       <c r="D6" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="9" t="s">
         <v>196</v>
       </c>
@@ -3719,13 +3785,13 @@
       <c r="D7" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="9" t="s">
         <v>197</v>
       </c>
@@ -3735,13 +3801,13 @@
       <c r="D8" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="9" t="s">
         <v>198</v>
       </c>
@@ -3751,13 +3817,13 @@
       <c r="D9" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="9" t="s">
         <v>218</v>
       </c>
@@ -3767,15 +3833,15 @@
       <c r="D10" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="9" t="s">
         <v>230</v>
       </c>
@@ -3785,13 +3851,13 @@
       <c r="D11" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="9" t="s">
         <v>231</v>
       </c>
@@ -3801,13 +3867,13 @@
       <c r="D12" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="9" t="s">
         <v>220</v>
       </c>
@@ -3817,15 +3883,15 @@
       <c r="D13" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="9" t="s">
         <v>221</v>
       </c>
@@ -3835,15 +3901,15 @@
       <c r="D14" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="28" t="s">
         <v>498</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="9" t="s">
         <v>222</v>
       </c>
@@ -3853,15 +3919,15 @@
       <c r="D15" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="28" t="s">
         <v>499</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="9" t="s">
         <v>223</v>
       </c>
@@ -3871,15 +3937,15 @@
       <c r="D16" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="28" t="s">
         <v>500</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="9" t="s">
         <v>224</v>
       </c>
@@ -3889,15 +3955,15 @@
       <c r="D17" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="28" t="s">
         <v>501</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="9" t="s">
         <v>225</v>
       </c>
@@ -3907,13 +3973,13 @@
       <c r="D18" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="9" t="s">
         <v>226</v>
       </c>
@@ -3923,15 +3989,15 @@
       <c r="D19" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="28" t="s">
         <v>502</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="9" t="s">
         <v>227</v>
       </c>
@@ -3941,13 +4007,13 @@
       <c r="D20" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="9" t="s">
         <v>228</v>
       </c>
@@ -3957,15 +4023,15 @@
       <c r="D21" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="28" t="s">
         <v>503</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="9" t="s">
         <v>229</v>
       </c>
@@ -3975,13 +4041,13 @@
       <c r="D22" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="9" t="s">
         <v>232</v>
       </c>
@@ -3991,15 +4057,15 @@
       <c r="D23" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="35" t="s">
         <v>312</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -4011,13 +4077,13 @@
       <c r="D24" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="10" t="s">
         <v>202</v>
       </c>
@@ -4027,13 +4093,13 @@
       <c r="D25" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="10" t="s">
         <v>201</v>
       </c>
@@ -4043,13 +4109,13 @@
       <c r="D26" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="10" t="s">
         <v>217</v>
       </c>
@@ -4059,13 +4125,13 @@
       <c r="D27" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="10" t="s">
         <v>199</v>
       </c>
@@ -4075,13 +4141,13 @@
       <c r="D28" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="10" t="s">
         <v>200</v>
       </c>
@@ -4091,13 +4157,13 @@
       <c r="D29" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="10" t="s">
         <v>204</v>
       </c>
@@ -4107,13 +4173,13 @@
       <c r="D30" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="43"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="10" t="s">
         <v>205</v>
       </c>
@@ -4123,13 +4189,13 @@
       <c r="D31" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="43"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="10" t="s">
         <v>219</v>
       </c>
@@ -4139,13 +4205,13 @@
       <c r="D32" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="43"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="10" t="s">
         <v>203</v>
       </c>
@@ -4155,13 +4221,13 @@
       <c r="D33" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="43"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="10" t="s">
         <v>216</v>
       </c>
@@ -4171,13 +4237,13 @@
       <c r="D34" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="43"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="10" t="s">
         <v>214</v>
       </c>
@@ -4187,13 +4253,13 @@
       <c r="D35" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="43"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="10" t="s">
         <v>206</v>
       </c>
@@ -4203,13 +4269,13 @@
       <c r="D36" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="43"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="10" t="s">
         <v>207</v>
       </c>
@@ -4219,13 +4285,13 @@
       <c r="D37" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="43"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="10" t="s">
         <v>208</v>
       </c>
@@ -4235,13 +4301,13 @@
       <c r="D38" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="43"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="10" t="s">
         <v>209</v>
       </c>
@@ -4251,13 +4317,13 @@
       <c r="D39" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="43"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="10" t="s">
         <v>215</v>
       </c>
@@ -4267,13 +4333,13 @@
       <c r="D40" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="43"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="10" t="s">
         <v>233</v>
       </c>
@@ -4283,13 +4349,13 @@
       <c r="D41" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="43"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="10" t="s">
         <v>210</v>
       </c>
@@ -4299,13 +4365,13 @@
       <c r="D42" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="43"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="10" t="s">
         <v>211</v>
       </c>
@@ -4315,13 +4381,13 @@
       <c r="D43" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E43" s="41"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="43"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="27"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="10" t="s">
         <v>212</v>
       </c>
@@ -4331,13 +4397,13 @@
       <c r="D44" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E44" s="41"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="43"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="10" t="s">
         <v>213</v>
       </c>
@@ -4347,10 +4413,10 @@
       <c r="D45" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="43"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
@@ -4398,7 +4464,7 @@
       <c r="Q47" s="20"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="36" t="s">
         <v>476</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -4414,7 +4480,7 @@
       <c r="H48" s="14"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="13" t="s">
         <v>116</v>
       </c>
@@ -4434,7 +4500,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="13" t="s">
         <v>117</v>
       </c>
@@ -4448,7 +4514,7 @@
       <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="27"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="13" t="s">
         <v>118</v>
       </c>
@@ -4468,7 +4534,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="27"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="13" t="s">
         <v>119</v>
       </c>
@@ -4482,7 +4548,7 @@
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="27"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="13" t="s">
         <v>120</v>
       </c>
@@ -4502,7 +4568,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="13" t="s">
         <v>121</v>
       </c>
@@ -4516,7 +4582,7 @@
       <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="13" t="s">
         <v>122</v>
       </c>
@@ -4536,7 +4602,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="27"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="13" t="s">
         <v>123</v>
       </c>
@@ -4550,7 +4616,7 @@
       <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="27"/>
+      <c r="A57" s="37"/>
       <c r="B57" s="13" t="s">
         <v>124</v>
       </c>
@@ -4570,7 +4636,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="27"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="13" t="s">
         <v>125</v>
       </c>
@@ -4584,7 +4650,7 @@
       <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="13" t="s">
         <v>126</v>
       </c>
@@ -4604,7 +4670,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="27"/>
+      <c r="A60" s="37"/>
       <c r="B60" s="13" t="s">
         <v>127</v>
       </c>
@@ -4618,7 +4684,7 @@
       <c r="H60" s="14"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
+      <c r="A61" s="37"/>
       <c r="B61" s="13" t="s">
         <v>128</v>
       </c>
@@ -4638,7 +4704,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
+      <c r="A62" s="37"/>
       <c r="B62" s="13" t="s">
         <v>129</v>
       </c>
@@ -4652,7 +4718,7 @@
       <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="27"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="13" t="s">
         <v>130</v>
       </c>
@@ -4672,7 +4738,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="27"/>
+      <c r="A64" s="37"/>
       <c r="B64" s="13" t="s">
         <v>131</v>
       </c>
@@ -4686,7 +4752,7 @@
       <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="27"/>
+      <c r="A65" s="37"/>
       <c r="B65" s="13" t="s">
         <v>132</v>
       </c>
@@ -4706,7 +4772,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="27"/>
+      <c r="A66" s="37"/>
       <c r="B66" s="13" t="s">
         <v>133</v>
       </c>
@@ -4720,7 +4786,7 @@
       <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="27"/>
+      <c r="A67" s="37"/>
       <c r="B67" s="13" t="s">
         <v>134</v>
       </c>
@@ -4734,7 +4800,7 @@
       <c r="H67" s="14"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="27"/>
+      <c r="A68" s="37"/>
       <c r="B68" s="13" t="s">
         <v>135</v>
       </c>
@@ -4748,7 +4814,7 @@
       <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="28"/>
+      <c r="A69" s="38"/>
       <c r="B69" s="13" t="s">
         <v>136</v>
       </c>
@@ -4768,7 +4834,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="39" t="s">
         <v>477</v>
       </c>
       <c r="B70" s="16" t="s">
@@ -4784,7 +4850,7 @@
       <c r="H70" s="17"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="30"/>
+      <c r="A71" s="40"/>
       <c r="B71" s="16" t="s">
         <v>138</v>
       </c>
@@ -4798,7 +4864,7 @@
       <c r="H71" s="17"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="30"/>
+      <c r="A72" s="40"/>
       <c r="B72" s="16" t="s">
         <v>139</v>
       </c>
@@ -4812,7 +4878,7 @@
       <c r="H72" s="17"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="30"/>
+      <c r="A73" s="40"/>
       <c r="B73" s="16" t="s">
         <v>140</v>
       </c>
@@ -4826,7 +4892,7 @@
       <c r="H73" s="17"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="30"/>
+      <c r="A74" s="40"/>
       <c r="B74" s="16" t="s">
         <v>141</v>
       </c>
@@ -4840,7 +4906,7 @@
       <c r="H74" s="17"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="30"/>
+      <c r="A75" s="40"/>
       <c r="B75" s="16" t="s">
         <v>142</v>
       </c>
@@ -4854,7 +4920,7 @@
       <c r="H75" s="17"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="30"/>
+      <c r="A76" s="40"/>
       <c r="B76" s="16" t="s">
         <v>143</v>
       </c>
@@ -4868,7 +4934,7 @@
       <c r="H76" s="17"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="30"/>
+      <c r="A77" s="40"/>
       <c r="B77" s="16" t="s">
         <v>144</v>
       </c>
@@ -4882,7 +4948,7 @@
       <c r="H77" s="17"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="30"/>
+      <c r="A78" s="40"/>
       <c r="B78" s="16" t="s">
         <v>145</v>
       </c>
@@ -4896,7 +4962,7 @@
       <c r="H78" s="17"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="30"/>
+      <c r="A79" s="40"/>
       <c r="B79" s="16" t="s">
         <v>150</v>
       </c>
@@ -4910,7 +4976,7 @@
       <c r="H79" s="17"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="30"/>
+      <c r="A80" s="40"/>
       <c r="B80" s="16" t="s">
         <v>151</v>
       </c>
@@ -4924,7 +4990,7 @@
       <c r="H80" s="17"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="30"/>
+      <c r="A81" s="40"/>
       <c r="B81" s="16" t="s">
         <v>152</v>
       </c>
@@ -4938,7 +5004,7 @@
       <c r="H81" s="17"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="30"/>
+      <c r="A82" s="40"/>
       <c r="B82" s="16" t="s">
         <v>153</v>
       </c>
@@ -4952,7 +5018,7 @@
       <c r="H82" s="17"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="30"/>
+      <c r="A83" s="40"/>
       <c r="B83" s="16" t="s">
         <v>154</v>
       </c>
@@ -4974,7 +5040,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="30"/>
+      <c r="A84" s="40"/>
       <c r="B84" s="16" t="s">
         <v>155</v>
       </c>
@@ -4996,7 +5062,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="30"/>
+      <c r="A85" s="40"/>
       <c r="B85" s="16" t="s">
         <v>156</v>
       </c>
@@ -5018,7 +5084,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="30"/>
+      <c r="A86" s="40"/>
       <c r="B86" s="16" t="s">
         <v>157</v>
       </c>
@@ -5040,7 +5106,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="30"/>
+      <c r="A87" s="40"/>
       <c r="B87" s="16" t="s">
         <v>158</v>
       </c>
@@ -5062,7 +5128,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="30"/>
+      <c r="A88" s="40"/>
       <c r="B88" s="16" t="s">
         <v>159</v>
       </c>
@@ -5084,7 +5150,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="30"/>
+      <c r="A89" s="40"/>
       <c r="B89" s="16" t="s">
         <v>160</v>
       </c>
@@ -5098,7 +5164,7 @@
       <c r="H89" s="17"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="30"/>
+      <c r="A90" s="40"/>
       <c r="B90" s="16" t="s">
         <v>161</v>
       </c>
@@ -5112,7 +5178,7 @@
       <c r="H90" s="17"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="30"/>
+      <c r="A91" s="40"/>
       <c r="B91" s="16" t="s">
         <v>162</v>
       </c>
@@ -5126,7 +5192,7 @@
       <c r="H91" s="17"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="30"/>
+      <c r="A92" s="40"/>
       <c r="B92" s="16" t="s">
         <v>163</v>
       </c>
@@ -5140,7 +5206,7 @@
       <c r="H92" s="17"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="30"/>
+      <c r="A93" s="40"/>
       <c r="B93" s="16" t="s">
         <v>164</v>
       </c>
@@ -5162,7 +5228,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="30"/>
+      <c r="A94" s="40"/>
       <c r="B94" s="16" t="s">
         <v>165</v>
       </c>
@@ -5184,7 +5250,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="30"/>
+      <c r="A95" s="40"/>
       <c r="B95" s="16" t="s">
         <v>166</v>
       </c>
@@ -5206,7 +5272,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="30"/>
+      <c r="A96" s="40"/>
       <c r="B96" s="16" t="s">
         <v>167</v>
       </c>
@@ -5228,7 +5294,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="30"/>
+      <c r="A97" s="40"/>
       <c r="B97" s="16" t="s">
         <v>168</v>
       </c>
@@ -5250,7 +5316,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="30"/>
+      <c r="A98" s="40"/>
       <c r="B98" s="16" t="s">
         <v>169</v>
       </c>
@@ -5264,7 +5330,7 @@
       <c r="H98" s="17"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="30"/>
+      <c r="A99" s="40"/>
       <c r="B99" s="16" t="s">
         <v>170</v>
       </c>
@@ -5278,7 +5344,7 @@
       <c r="H99" s="17"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="30"/>
+      <c r="A100" s="40"/>
       <c r="B100" s="16" t="s">
         <v>171</v>
       </c>
@@ -5300,7 +5366,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="30"/>
+      <c r="A101" s="40"/>
       <c r="B101" s="16" t="s">
         <v>172</v>
       </c>
@@ -5314,7 +5380,7 @@
       <c r="H101" s="17"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="30"/>
+      <c r="A102" s="40"/>
       <c r="B102" s="16" t="s">
         <v>173</v>
       </c>
@@ -5328,7 +5394,7 @@
       <c r="H102" s="17"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="30"/>
+      <c r="A103" s="40"/>
       <c r="B103" s="16" t="s">
         <v>174</v>
       </c>
@@ -5350,7 +5416,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="30"/>
+      <c r="A104" s="40"/>
       <c r="B104" s="16" t="s">
         <v>175</v>
       </c>
@@ -5372,7 +5438,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="30"/>
+      <c r="A105" s="40"/>
       <c r="B105" s="16" t="s">
         <v>176</v>
       </c>
@@ -5394,7 +5460,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="30"/>
+      <c r="A106" s="40"/>
       <c r="B106" s="16" t="s">
         <v>177</v>
       </c>
@@ -5416,7 +5482,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="30"/>
+      <c r="A107" s="40"/>
       <c r="B107" s="16" t="s">
         <v>178</v>
       </c>
@@ -5430,7 +5496,7 @@
       <c r="H107" s="17"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="30"/>
+      <c r="A108" s="40"/>
       <c r="B108" s="16" t="s">
         <v>179</v>
       </c>
@@ -5444,7 +5510,7 @@
       <c r="H108" s="17"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="30"/>
+      <c r="A109" s="40"/>
       <c r="B109" s="16" t="s">
         <v>180</v>
       </c>
@@ -5458,7 +5524,7 @@
       <c r="H109" s="17"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="30"/>
+      <c r="A110" s="40"/>
       <c r="B110" s="16" t="s">
         <v>181</v>
       </c>
@@ -5480,7 +5546,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="30"/>
+      <c r="A111" s="40"/>
       <c r="B111" s="16" t="s">
         <v>182</v>
       </c>
@@ -5494,7 +5560,7 @@
       <c r="H111" s="17"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="30"/>
+      <c r="A112" s="40"/>
       <c r="B112" s="16" t="s">
         <v>183</v>
       </c>
@@ -5508,7 +5574,7 @@
       <c r="H112" s="17"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="30"/>
+      <c r="A113" s="40"/>
       <c r="B113" s="16" t="s">
         <v>184</v>
       </c>
@@ -5522,7 +5588,7 @@
       <c r="H113" s="17"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="30"/>
+      <c r="A114" s="40"/>
       <c r="B114" s="16" t="s">
         <v>185</v>
       </c>
@@ -5536,7 +5602,7 @@
       <c r="H114" s="17"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="30"/>
+      <c r="A115" s="40"/>
       <c r="B115" s="16" t="s">
         <v>186</v>
       </c>
@@ -5558,7 +5624,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="30"/>
+      <c r="A116" s="40"/>
       <c r="B116" s="16" t="s">
         <v>187</v>
       </c>
@@ -5580,7 +5646,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="30"/>
+      <c r="A117" s="40"/>
       <c r="B117" s="16" t="s">
         <v>188</v>
       </c>
@@ -5602,7 +5668,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="30"/>
+      <c r="A118" s="40"/>
       <c r="B118" s="16" t="s">
         <v>189</v>
       </c>
@@ -5624,7 +5690,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="30"/>
+      <c r="A119" s="40"/>
       <c r="B119" s="16" t="s">
         <v>190</v>
       </c>
@@ -5646,7 +5712,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="30"/>
+      <c r="A120" s="40"/>
       <c r="B120" s="16" t="s">
         <v>191</v>
       </c>
@@ -5668,7 +5734,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="31"/>
+      <c r="A121" s="41"/>
       <c r="B121" s="16" t="s">
         <v>192</v>
       </c>
@@ -5690,7 +5756,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="32" t="s">
+      <c r="A122" s="42" t="s">
         <v>493</v>
       </c>
       <c r="B122" s="18" t="s">
@@ -5706,7 +5772,7 @@
       <c r="H122" s="19"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="33"/>
+      <c r="A123" s="43"/>
       <c r="B123" s="18" t="s">
         <v>235</v>
       </c>
@@ -5726,7 +5792,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="33"/>
+      <c r="A124" s="43"/>
       <c r="B124" s="18" t="s">
         <v>236</v>
       </c>
@@ -5746,7 +5812,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="33"/>
+      <c r="A125" s="43"/>
       <c r="B125" s="18" t="s">
         <v>237</v>
       </c>
@@ -5766,7 +5832,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="33"/>
+      <c r="A126" s="43"/>
       <c r="B126" s="18" t="s">
         <v>238</v>
       </c>
@@ -5786,7 +5852,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="33"/>
+      <c r="A127" s="43"/>
       <c r="B127" s="18" t="s">
         <v>239</v>
       </c>
@@ -5806,7 +5872,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="33"/>
+      <c r="A128" s="43"/>
       <c r="B128" s="18" t="s">
         <v>240</v>
       </c>
@@ -5826,7 +5892,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="33"/>
+      <c r="A129" s="43"/>
       <c r="B129" s="18" t="s">
         <v>241</v>
       </c>
@@ -5846,7 +5912,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="33"/>
+      <c r="A130" s="43"/>
       <c r="B130" s="18" t="s">
         <v>242</v>
       </c>
@@ -5866,7 +5932,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="33"/>
+      <c r="A131" s="43"/>
       <c r="B131" s="18" t="s">
         <v>243</v>
       </c>
@@ -5880,7 +5946,7 @@
       <c r="H131" s="19"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="33"/>
+      <c r="A132" s="43"/>
       <c r="B132" s="18" t="s">
         <v>244</v>
       </c>
@@ -5900,7 +5966,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="33"/>
+      <c r="A133" s="43"/>
       <c r="B133" s="18" t="s">
         <v>245</v>
       </c>
@@ -5920,7 +5986,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="33"/>
+      <c r="A134" s="43"/>
       <c r="B134" s="18" t="s">
         <v>246</v>
       </c>
@@ -5940,7 +6006,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="33"/>
+      <c r="A135" s="43"/>
       <c r="B135" s="18" t="s">
         <v>247</v>
       </c>
@@ -5960,7 +6026,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="33"/>
+      <c r="A136" s="43"/>
       <c r="B136" s="18" t="s">
         <v>248</v>
       </c>
@@ -5980,7 +6046,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="33"/>
+      <c r="A137" s="43"/>
       <c r="B137" s="18" t="s">
         <v>249</v>
       </c>
@@ -5994,7 +6060,7 @@
       <c r="H137" s="19"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="34"/>
+      <c r="A138" s="44"/>
       <c r="B138" s="18" t="s">
         <v>250</v>
       </c>
@@ -6009,35 +6075,11 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A24:A45"/>
+    <mergeCell ref="A48:A69"/>
+    <mergeCell ref="A70:A121"/>
+    <mergeCell ref="A122:A138"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="E2:H2"/>
@@ -6054,11 +6096,35 @@
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="A24:A45"/>
-    <mergeCell ref="A48:A69"/>
-    <mergeCell ref="A70:A121"/>
-    <mergeCell ref="A122:A138"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6346,11 +6412,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>515</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="16" t="s">
         <v>423</v>
       </c>
@@ -6362,9 +6428,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="16" t="s">
         <v>424</v>
       </c>
@@ -6376,9 +6442,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="16" t="s">
         <v>428</v>
       </c>
@@ -6390,9 +6456,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="16" t="s">
         <v>429</v>
       </c>
@@ -6404,9 +6470,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="16" t="s">
         <v>430</v>
       </c>
@@ -6418,9 +6484,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="16" t="s">
         <v>431</v>
       </c>
@@ -6432,9 +6498,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="16" t="s">
         <v>432</v>
       </c>
@@ -6446,9 +6512,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="16" t="s">
         <v>433</v>
       </c>
@@ -6460,9 +6526,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="16" t="s">
         <v>437</v>
       </c>
@@ -6474,9 +6540,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="16" t="s">
         <v>439</v>
       </c>
@@ -6488,9 +6554,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="16" t="s">
         <v>440</v>
       </c>
@@ -6512,282 +6578,336 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="23" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
+      <c r="C1" s="23" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="53">
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="53">
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="22">
+      <c r="C3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="53">
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="53">
         <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="53">
         <v>4</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="53">
         <v>5</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="53">
         <v>6</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+      <c r="C8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="53">
         <v>7</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="53">
         <v>8</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
+      <c r="C10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="53">
         <v>9</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+      <c r="C11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="53">
         <v>10</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+      <c r="C12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="53">
         <v>11</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="22"/>
+      <c r="G13" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>12</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="49" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>13</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="50"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>14</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="50"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>15</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="51"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>16</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="49"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <v>17</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="50"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <v>18</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="51"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>19</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="49"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>20</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="50"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>21</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="50"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>22</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="51"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>23</v>
       </c>
       <c r="B25" s="22" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="22" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>24</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="49" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>25</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="50"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>26</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="50"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>27</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="51"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>28</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="49" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>29</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" s="50"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
         <v>30</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="50"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
         <v>31</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>568</v>
       </c>
+      <c r="C33" s="51"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6796,210 +6916,242 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="23" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
+      <c r="C1" s="23" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="53">
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="53">
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="22">
+      <c r="C3" s="22"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="53">
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="53">
         <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="53">
         <v>4</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="53">
         <v>5</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="53">
         <v>6</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+      <c r="C8" s="22"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="53">
         <v>7</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="53">
         <v>8</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
+      <c r="C10" s="22"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="53">
         <v>9</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+        <v>547</v>
+      </c>
+      <c r="C11" s="22"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="53">
         <v>10</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+        <v>548</v>
+      </c>
+      <c r="C12" s="22"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="53">
         <v>11</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
+        <v>549</v>
+      </c>
+      <c r="C13" s="22"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="53">
         <v>12</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+        <v>550</v>
+      </c>
+      <c r="C14" s="22"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="53">
         <v>13</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+        <v>553</v>
+      </c>
+      <c r="C15" s="22"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="53">
         <v>14</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="22">
+        <v>551</v>
+      </c>
+      <c r="C16" s="22"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="53">
         <v>15</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+      <c r="C17" s="22"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>16</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+      <c r="C18" s="22"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <v>17</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+      <c r="C19" s="52"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <v>18</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+      <c r="C20" s="52"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>19</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="49" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>20</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="50"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>21</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="50"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>22</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>555</v>
       </c>
+      <c r="C24" s="51"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C21:C24"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
